--- a/data/trans_dic/P25C_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Provincia-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06882661839375798</v>
+        <v>0.0793972747060467</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.05542098794142861</v>
+        <v>0.05849994807141033</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.00845878836988067</v>
+        <v>0.008458788369880668</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01907536474555121</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003238940310199661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05017003046425624</v>
+        <v>0.04256295511925218</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06896860647900864</v>
+        <v>0.0667141556361628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0357691220097745</v>
+        <v>0.03334604538835502</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.01367979130435235</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07249414496400616</v>
+        <v>0.07249414496400619</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03856231815560839</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02513273499825874</v>
+        <v>0.02670914502674137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01541103780045514</v>
+        <v>0.01528614797849664</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07659399729526822</v>
+        <v>0.0697585250625167</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1383877469827407</v>
+        <v>0.1467359716776078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07406244313221146</v>
+        <v>0.07977094418920763</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.005464835963998113</v>
+        <v>0.005464835963998114</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01529113392710842</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002805160027950027</v>
+        <v>0.002787782729483287</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03989671209174103</v>
+        <v>0.02851741348120385</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05115366678881401</v>
+        <v>0.0498926986774955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02971979815084663</v>
+        <v>0.02753189282379711</v>
       </c>
     </row>
     <row r="16">
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01054512924489546</v>
+        <v>0.01051360084607235</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.008436409995365117</v>
+        <v>0.008077043946026378</v>
       </c>
     </row>
     <row r="21">
@@ -855,11 +855,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1030327077708151</v>
+        <v>0.1006422270139228</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.07916479835085474</v>
+        <v>0.07908603914501661</v>
       </c>
     </row>
     <row r="22">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006952175796555101</v>
+        <v>0.005937030654543436</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02487814271919308</v>
+        <v>0.02440145967650036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02007766705502741</v>
+        <v>0.02066375235198547</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0651321443596435</v>
+        <v>0.05970230596141447</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09761078171469861</v>
+        <v>0.1018967592573026</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06595251461470424</v>
+        <v>0.06487227132144195</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>0.05366690396254613</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.06305968296259852</v>
+        <v>0.06305968296259853</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.05630055513941925</v>
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02547579114122212</v>
+        <v>0.02481244838917997</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01665143401261704</v>
+        <v>0.01670734955515551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03086720565160746</v>
+        <v>0.03007184451929475</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09812983171830146</v>
+        <v>0.09618046904039276</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1499634139572126</v>
+        <v>0.146641510019162</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09888288517685898</v>
+        <v>0.09265301057515619</v>
       </c>
     </row>
     <row r="28">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="31">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3466</v>
+        <v>3999</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>3480</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="8">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5950</v>
+        <v>5048</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4603</v>
+        <v>4453</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6630</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="12">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1247</v>
+        <v>1326</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="15">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5184</v>
+        <v>4722</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6869</v>
+        <v>7283</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8689</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="16">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4286</v>
+        <v>3064</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3330</v>
+        <v>3248</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5127</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="20">
@@ -1514,11 +1514,11 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27">
@@ -1529,11 +1529,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4589</v>
+        <v>4482</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4436</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="28">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>990</v>
+        <v>845</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2672</v>
+        <v>2621</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5015</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="31">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9272</v>
+        <v>8499</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10484</v>
+        <v>10945</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16473</v>
+        <v>16203</v>
       </c>
     </row>
     <row r="32">
@@ -1654,13 +1654,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2893</v>
+        <v>2817</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4870</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="35">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11142</v>
+        <v>10921</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6635</v>
+        <v>6488</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>15602</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="36">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
     </row>
     <row r="39">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
     </row>
     <row r="40">
